--- a/pred_ohlcv/54_21/2019-10-28 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LAMB ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1293519.829649602</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1293994.829649602</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1393249.138749602</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1481242.864349602</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1580938.940749601</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2034718.301149602</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2007670.420049602</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1994109.083649602</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1718501.659200087</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1757700.047100087</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1877946.167100087</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1816836.167100087</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1626706.302500087</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1645663.284500087</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1790266.276400087</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1657987.013500087</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1600712.465000087</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1512445.114300087</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1472755.033200087</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1645268.114200087</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1645278.214200087</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1623778.214200087</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>769809.2016727021</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>796759.1275727021</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>793261.3697727021</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>711542.1131727021</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>701633.8911727022</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>689661.7517727022</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-730252.3732438782</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-756977.9004438783</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-715614.9004438783</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-678838.1211490065</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-674742.1211490065</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-526720.8575490066</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-539571.9847490067</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-551777.9847490067</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-549580.8401490067</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-536571.3047490066</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-828070.4690849965</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-866227.4656849965</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1037830.356984996</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LAMB ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1293519.829649602</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1293994.829649602</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1393249.138749602</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1481242.864349602</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1580938.940749601</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2102483.846949602</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2034718.301149602</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2007670.420049602</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1994109.083649602</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1718501.659200087</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1757700.047100087</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1877946.167100087</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1816836.167100087</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1626706.302500087</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1645663.284500087</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1790266.276400087</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1657987.013500087</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1600712.465000087</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1512445.114300087</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1472755.033200087</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>769809.2016727021</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>796759.1275727021</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>793261.3697727021</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>711542.1131727021</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>701633.8911727022</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>689661.7517727022</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-596326.0196438782</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-555598.2795438782</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-654638.5373438782</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-686910.7241438782</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-730252.3732438782</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-636361.7866438782</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-632574.4827490065</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-670141.0497490065</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-598637.0391490066</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-597018.3912490066</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-601416.3399490066</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-578816.3399490066</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-556616.3399490066</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-556616.3399490066</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-563709.7208490066</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-563709.7208490066</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-588403.1156490066</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-581869.0954490065</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-526720.8575490066</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-527293.8575490066</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-480989.8321490066</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-538689.8321490067</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-539571.9847490067</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-551777.9847490067</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-549580.8401490067</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-536571.3047490066</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-619132.1787849964</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-619122.0787849964</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-828070.4690849965</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-840408.0939849964</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-866237.4656849965</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-889957.7841849965</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1063002.136484996</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1039893.356984996</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1038162.356984996</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1044682.069784996</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1042563.941579868</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1042563.941579868</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1162936.509679868</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1162926.399679868</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1037266.200879868</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1050266.200879868</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-959046.2008798681</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-987050.5084798681</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-987050.5084798681</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-977041.5084798681</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-953958.5605798681</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-886625.2441798681</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-804760.2441798681</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-804760.2441798681</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-804971.2441798681</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-675238.9594798682</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-679692.8770798682</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-677904.8770798682</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-692822.2930798682</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-662822.2930798682</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-610779.9793798681</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-648108.0224798681</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-582233.9579798682</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-635799.1412798682</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-527407.8483798682</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-528120.6217798681</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-526340.7174798681</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-549520.2735798681</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-549020.2735798681</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-689020.2735798681</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-193276.5032587095</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-679902.2248186647</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-681568.6011186647</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-678736.6280496648</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
